--- a/public/assets/documents/fo-inscriptions-entreprises.xlsx
+++ b/public/assets/documents/fo-inscriptions-entreprises.xlsx
@@ -25,7 +25,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="11"/>
@@ -41,7 +41,7 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="11"/>
@@ -57,7 +57,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="11"/>
@@ -73,7 +73,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="11"/>
@@ -89,7 +89,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
@@ -105,7 +105,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="11"/>
@@ -121,7 +121,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="11"/>
@@ -136,7 +136,7 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="11"/>
@@ -152,7 +152,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="17" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="11"/>
@@ -168,7 +168,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="17" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="11"/>
@@ -184,7 +184,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="17" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="11"/>
@@ -200,7 +200,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="17" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="11"/>
@@ -235,7 +235,7 @@
   <dimension ref="A1:I388"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -273,45 +273,45 @@
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>596</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>598</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>580</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>579</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>578</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>577</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>574</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -336,11 +336,11 @@
       <c r="G4" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>573</v>
+      <c r="H4" s="33" t="s">
+        <v>596</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4592,14 +4592,2638 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77401E97-7A14-154D-A455-EA891D6CF46B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9A358B0C-B633-4152-954A-19D72B7DF791}">
           <x14:formula1>
-            <xm:f>Database!$L$1:$L$2</xm:f>
+            <xm:f>Database!$L$1:$L$3</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H388</xm:sqref>
+          <xm:sqref>H1:H2 H4:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C1:L234"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>570</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>571</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I5" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I6" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I7" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I8" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I48" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I50" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I51" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I52" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I53" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I54" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I55" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I58" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I59" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I60" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I62" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I63" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I64" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I65" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I66" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I67" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I68" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I69" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J69" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I70" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I71" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I72" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I73" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I75" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I76" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I77" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I78" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I79" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I80" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I81" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I82" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I83" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I84" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I85" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I86" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I87" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I88" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I89" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I90" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I91" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I92" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I93" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I94" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I95" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I96" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I97" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I98" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I99" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I100" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="101" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I101" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="102" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I102" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I103" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I104" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I105" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I106" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I107" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I108" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I109" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I110" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I111" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I112" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I113" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="114" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I114" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J114" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="115" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I115" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I116" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I117" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="118" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I118" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I119" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="K119" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I120" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="K120" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I121" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="122" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I122" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="K122" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I123" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="124" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I124" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="125" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I125" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J125" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I126" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J126" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K126" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I127" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K127" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="128" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I128" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="129" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I129" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="130" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I130" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="J130" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="K130" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I131" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="132" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I132" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="133" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I133" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I134" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K134" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="135" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I135" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I136" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="K136" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="137" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I137" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I138" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="139" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I139" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="140" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I140" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="141" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I141" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="142" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I142" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="143" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I143" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="144" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I144" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I145" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="146" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I146" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="147" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I147" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="148" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I148" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="149" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I149" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="150" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I150" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="151" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I151" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="152" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I152" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="153" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I153" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="154" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I154" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="J154" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I155" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I156" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J156" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="K156" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I157" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="158" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I158" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="K158" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="159" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I159" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="K159" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="160" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I160" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="161" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I161" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="162" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I162" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="163" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I163" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="164" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I164" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="K164" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="165" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I165" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="K165" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="166" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I166" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="167" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I167" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J167" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="K167" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I168" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="J168" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="K168" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="169" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I169" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="J169" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="K169" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="170" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I170" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="K170" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="171" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I171" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="172" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I172" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="K172" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="173" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I173" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="174" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I174" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="K174" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="175" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I175" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="176" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I176" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="J176" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="K176" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="177" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I177" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="J177" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="K177" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="178" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I178" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J178" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="K178" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="179" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I179" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="J179" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="180" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I180" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="J180" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K180" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="181" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I181" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="K181" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="182" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I182" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J182" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="K182" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="183" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I183" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="J183" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K183" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="184" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I184" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="J184" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="K184" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="185" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I185" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J185" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="K185" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="186" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I186" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="187" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I187" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="188" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I188" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="K188" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="189" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I189" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="K189" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="190" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I190" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="J190" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="K190" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="191" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I191" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="J191" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="K191" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="192" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I192" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="J192" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="K192" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="193" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I193" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="J193" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="K193" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="194" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I194" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J194" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="K194" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="195" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I195" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="J195" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="K195" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="196" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I196" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="J196" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="K196" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="197" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I197" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="J197" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="K197" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="198" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I198" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="K198" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="199" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I199" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="K199" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="200" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I200" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J200" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="K200" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="201" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I201" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="J201" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="K201" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="202" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I202" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="K202" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="203" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I203" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="K203" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="204" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I204" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="K204" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I205" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="J205" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="K205" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="206" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I206" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="J206" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="K206" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="207" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I207" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="J207" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="K207" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="208" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I208" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="J208" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K208" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="209" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I209" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K209" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="210" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I210" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="J210" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="K210" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="211" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I211" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="J211" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="K211" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="212" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I212" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="J212" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="K212" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="213" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I213" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="J213" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="K213" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="214" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I214" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J214" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="K214" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="215" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I215" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="J215" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="K215" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="216" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I216" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="J216" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="K216" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="217" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I217" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="J217" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K217" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="218" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I218" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="J218" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="K218" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="219" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I219" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="J219" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="K219" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="220" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I220" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="J220" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="K220" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="221" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I221" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="J221" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="K221" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="222" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I222" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="J222" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="K222" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="223" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I223" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="J223" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="K223" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="224" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I224" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="J224" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="K224" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="225" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I225" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="J225" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="K225" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="226" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I226" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J226" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="K226" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="227" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I227" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J227" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="K227" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="228" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I228" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="J228" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="K228" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="229" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I229" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J229" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="K229" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="230" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I230" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="J230" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="K230" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="231" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I231" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="J231" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="K231" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="232" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I232" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="J232" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="K232" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="233" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I233" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="J233" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="K233" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="234" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I234" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="J234" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="K234" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>